--- a/ec2data.xlsx
+++ b/ec2data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg40328\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5937E91-AE4A-4475-BCEC-51D2DF6260D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85987EB-8C81-482C-8265-43FA6585AE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F99BF61B-F22B-44B8-ACDE-DBEEF497C71E}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t xml:space="preserve"> i-0825f73d564da4ff4</t>
-  </si>
-  <si>
     <t>i-027fec62a6927390b</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>23t4691069</t>
+  </si>
+  <si>
+    <t>i-0825f73d564da4ff4</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,10 +418,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
       <c r="C1">
         <v>12345567</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>12345678</v>
@@ -440,13 +440,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
